--- a/DATA/IsoData/SCBIIsoData.xlsx
+++ b/DATA/IsoData/SCBIIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">bbc24f40-bd03-4b0b-93de-4ff2a7f2bbec</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9e84585a-f06d-4739-af59-e2dc251871a8</t>
   </si>
   <si>
     <t xml:space="preserve">SCBI.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161342Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a51b2075-c4e5-4964-91e5-e93fac618074</t>
+    <t xml:space="preserve">20210112T153518Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2a6393f2-1ab1-4d2f-b9ee-5e3395d393f3</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190620.1215</t>
@@ -101,10 +107,10 @@
     <t xml:space="preserve">A00000072230</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161507Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7284abef-3ef8-4a90-93ab-e2f1e97bd5d3</t>
+    <t xml:space="preserve">20210112T153818Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38e438d1-5988-4c29-8ed8-233c4c25885f</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190702.1120</t>
@@ -116,10 +122,10 @@
     <t xml:space="preserve">A00000072214</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160346Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11c12931-1f51-474c-b2a1-57fc2415b3fc</t>
+    <t xml:space="preserve">20210112T154310Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1fb789c7-7350-475c-9415-8dbacf0b5879</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190717.1017</t>
@@ -131,7 +137,7 @@
     <t xml:space="preserve">A00000072298</t>
   </si>
   <si>
-    <t xml:space="preserve">c9f1ce10-2e79-4972-9eed-76de0d8c90fb</t>
+    <t xml:space="preserve">b4988856-0a2e-48cc-b34d-568e5371f978</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190730.2234</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000072305</t>
   </si>
   <si>
-    <t xml:space="preserve">be4110db-c1d9-48f2-9604-05aa03be9fa3</t>
+    <t xml:space="preserve">c969ad25-1ce3-4553-88ed-c3aaebe36d7a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190815.1045</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000072283</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154838Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f84b51e4-d263-47c6-bccd-2d5ec4553acb</t>
+    <t xml:space="preserve">20210112T152041Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c72e3ff3-d09e-467d-b8ee-0c797faaac28</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190912.0844</t>
@@ -170,10 +176,10 @@
     <t xml:space="preserve">A00000072312</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154944Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85864ecb-f3b3-4273-ad55-3d581f2cb3b8</t>
+    <t xml:space="preserve">20210112T151932Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d72c9f9e-0727-4163-aeb4-8e64056700ff</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20190926.1030</t>
@@ -185,7 +191,7 @@
     <t xml:space="preserve">A00000072306</t>
   </si>
   <si>
-    <t xml:space="preserve">3fdfec6f-fec5-444d-80b0-b2abaa3993c6</t>
+    <t xml:space="preserve">69d5bfa8-ccd6-4422-b5da-b09856e0dd65</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20191010.1000</t>
@@ -197,10 +203,10 @@
     <t xml:space="preserve">A00000072291</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155037Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9b6c812-b520-464f-bfea-ba7f404701cc</t>
+    <t xml:space="preserve">20210112T151849Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dc5a39b4-da16-4514-8c9f-d469e9a6ff8e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20191023.1131</t>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">A00000072303</t>
   </si>
   <si>
-    <t xml:space="preserve">1e9b739e-9b84-4164-b9cd-a64228bc6457</t>
+    <t xml:space="preserve">d520d6e1-f7bd-488e-950c-2c111f9e9d98</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20191107.1200</t>
@@ -224,22 +230,22 @@
     <t xml:space="preserve">A00000072188</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155221Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d2653a49-863d-4314-85e8-078684a33c31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.SCBI.20191120.1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.SCBI.20191120.1200.ISO.TEST</t>
+    <t xml:space="preserve">20210111T174540Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629419e5-8c1d-4d31-b15f-0f7387b389e4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20191119.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20191119.1200.ISO.TEST</t>
   </si>
   <si>
     <t xml:space="preserve">A00000072239</t>
   </si>
   <si>
-    <t xml:space="preserve">ebb484bf-150f-43a0-817b-60a277b8e841</t>
+    <t xml:space="preserve">e93c129a-715e-4e01-9dc2-2134564cb398</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20191205.1200</t>
@@ -251,22 +257,22 @@
     <t xml:space="preserve">A00000072190</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T155307Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b9d291db-8ff5-4747-8302-7dd5ebef9b9f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.SCBI.20191219.1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WDP.SCBI.20191219.1200.ISO.TEST</t>
+    <t xml:space="preserve">20210111T200013Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eb9f717c-74a0-450c-89bb-0b476a4ac557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20191218.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20191218.1200.ISO.TEST</t>
   </si>
   <si>
     <t xml:space="preserve">A00000072238</t>
   </si>
   <si>
-    <t xml:space="preserve">5baad402-d921-46bb-90fd-52e3d4930245</t>
+    <t xml:space="preserve">e2650ad1-1914-425f-947f-495c12362d1a</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20200113.1300</t>
@@ -278,10 +284,13 @@
     <t xml:space="preserve">A00000072243</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T160714Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f49bba63-5686-4e2c-b6ad-81c62c2a412a</t>
+    <t xml:space="preserve">20210112T153530Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">673df853-84bf-4161-bf51-3674e9da0948</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20200122.1200</t>
@@ -293,7 +302,7 @@
     <t xml:space="preserve">A00000072236</t>
   </si>
   <si>
-    <t xml:space="preserve">39e360ec-a215-498d-b5e2-4c5767a83201</t>
+    <t xml:space="preserve">d683a63f-fa92-4ce5-8585-37e34ee29ac5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.SCBI.20200206.1200</t>
@@ -305,7 +314,34 @@
     <t xml:space="preserve">A00000072220</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T142950Z</t>
+    <t xml:space="preserve">20210111T181604Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4bc9d6fc-acaf-411b-be39-58a81c892008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20200227.1030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20200227.1030.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">024f977a-6b76-4422-a420-a5631ed66373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20200312.1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.SCBI.20200312.1200.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000072262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T152606Z</t>
   </si>
 </sst>
 </file>
@@ -643,7 +679,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -697,23 +733,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43592.7291666667</v>
@@ -734,35 +773,38 @@
         <v>0.058</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43608.5444444444</v>
@@ -783,35 +825,38 @@
         <v>0.067</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43636.6875</v>
@@ -832,35 +877,38 @@
         <v>0.136</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43648.6423611111</v>
@@ -881,41 +929,44 @@
         <v>0.047</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43663.5979166667</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>43677.1069444444</v>
+        <v>43676.6486111111</v>
       </c>
       <c r="I6" t="n">
         <v>-5.07</v>
@@ -930,35 +981,38 @@
         <v>0.1</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43676.6666666667</v>
@@ -979,35 +1033,38 @@
         <v>0.144</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43705.5777777778</v>
@@ -1028,38 +1085,41 @@
         <v>0.224</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43808.7916666667</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>43705.5777777778</v>
+        <v>43720.5305555556</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>43734.6041666667</v>
@@ -1077,38 +1137,41 @@
         <v>0.402</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>43705.5777777778</v>
+        <v>43734.6041666667</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>43748.5833333333</v>
@@ -1126,38 +1189,41 @@
         <v>0.128</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>43746.6180555556</v>
+        <v>43748.6180555556</v>
       </c>
       <c r="H11" s="1" t="n">
         <v>43761.6465277778</v>
@@ -1175,35 +1241,38 @@
         <v>0.28</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43836.7916666667</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43761.6666666667</v>
@@ -1224,41 +1293,44 @@
         <v>0.111</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43776.7083333333</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>43789.7083333333</v>
+        <v>43788.6875</v>
       </c>
       <c r="I13" t="n">
         <v>-7.066</v>
@@ -1273,35 +1345,38 @@
         <v>0.265</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43788.7083333333</v>
@@ -1322,41 +1397,44 @@
         <v>0.071</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43804.7083333333</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>43818.7083333333</v>
+        <v>43817.6875</v>
       </c>
       <c r="I15" t="n">
         <v>-9.808</v>
@@ -1371,35 +1449,38 @@
         <v>0.059</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43853.7916666667</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43817.7083333333</v>
@@ -1420,35 +1501,38 @@
         <v>0.06</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43843.75</v>
@@ -1469,35 +1553,38 @@
         <v>0.065</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43852.7083333333</v>
@@ -1518,17 +1605,124 @@
         <v>0.209</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43889.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>97</v>
+        <v>100</v>
+      </c>
+      <c r="R18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>43871.6944444444</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>43888.6458333333</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-10.688</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-81.438</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="M19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>43990.75</v>
+      </c>
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19"/>
+      <c r="Q19" t="s">
+        <v>100</v>
+      </c>
+      <c r="R19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>43887.7013888889</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>43902.6666666667</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-7.944</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-51.547</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>44043.75</v>
+      </c>
+      <c r="O20" t="s">
+        <v>24</v>
+      </c>
+      <c r="P20"/>
+      <c r="Q20" t="s">
+        <v>109</v>
+      </c>
+      <c r="R20" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
